--- a/test/driver.xlsx
+++ b/test/driver.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
@@ -49,12 +53,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,166 +447,174 @@
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10.75" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>车牌号：闽HLT732</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>驾驶员：吴建茂</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>电话：13429084882</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>起始日期：2024-06-30</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>截止日期：2024-07-27</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
+          <t>宏途清运司机对账单</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" ht="18.5" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>车牌号：闽HJV057</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>驾驶员：严文明</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>电话：13860061750</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>起始日期：2024-07-29</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>截止日期：2024-10-04</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>运输起点</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>运输终点</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>品类</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>装车方式</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>给司机单价</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="4" ht="18.5" customHeight="1">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>学堂路</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>学堂路</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>砖</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>吨</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>黄旺忠</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>水泥块</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>工地机械</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>100</v>
       </c>
+      <c r="J4" s="4" t="n">
+        <v>300</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>总 计 金 额：100.0</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>总 计 大 写 (金 额)：壹佰</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="n"/>
+    <row r="5" ht="18.5" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>总 计 金 额：300.0</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>总 计 大 写 (金 额)：叁佰</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/driver.xlsx
+++ b/test/driver.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,30 +462,30 @@
     <row r="2" ht="18.5" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>车牌号：闽HJV057</t>
+          <t>车牌号：闽HSZ599</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>驾驶员：严文明</t>
+          <t>驾驶员：程松林</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>电话：13860061750</t>
+          <t>电话：18259937081</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>起始日期：2024-07-29</t>
+          <t>起始日期：2024-07-31</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>截止日期：2024-10-04</t>
+          <t>截止日期：2024-10-02</t>
         </is>
       </c>
       <c r="I2" s="2" t="n"/>
@@ -554,21 +554,21 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>天圆地方</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>黄旺忠</t>
+          <t>梁布</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>水泥块</t>
+          <t>建筑垃圾</t>
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
@@ -581,40 +581,84 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>总 计 金 额：300.0</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>总 计 大 写 (金 额)：叁佰</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
+      <c r="A5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>芦峰小学</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>梁布</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>建筑垃圾</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>工地机械</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>总 计 金 额：80</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>总 计 大 写 (金 额)：捌拾元整</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/driver.xlsx
+++ b/test/driver.xlsx
@@ -17,17 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
@@ -53,15 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -432,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,214 +442,103 @@
     <col width="8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
+    <row r="1" ht="18.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>宏途清运司机对账单</t>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>运输起点</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>运输终点</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>装车方式</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>给司机单价</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>金额</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>车牌号：闽HSZ599</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>驾驶员：程松林</t>
+          <t>赤岸统建房物业</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>电话：18259937081</t>
+          <t>八达通沙场</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>起始日期：2024-07-31</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
+          <t>药渣</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>截止日期：2024-10-02</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>运输起点</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>运输终点</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>装车方式</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>给司机单价</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>天圆地方</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>梁布</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>建筑垃圾</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>车</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
           <t>工地机械</t>
         </is>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>芦峰小学</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>梁布</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>建筑垃圾</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>车</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>工地机械</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="I2" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J2" s="2" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>总 计 金 额：80</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>总 计 大 写 (金 额)：捌拾元整</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E6:J6"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>